--- a/MMControl/MMControl_varVectors.xlsx
+++ b/MMControl/MMControl_varVectors.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="120">
   <si>
     <t>savedVars</t>
   </si>
@@ -358,6 +358,24 @@
   </si>
   <si>
     <t>[1,1,1,1]</t>
+  </si>
+  <si>
+    <t>'numExtraStimuli_edit'</t>
+  </si>
+  <si>
+    <t>'periodExtraStimuli_edit'</t>
+  </si>
+  <si>
+    <t>'durationExtraStimuli_edit'</t>
+  </si>
+  <si>
+    <t>durationExtraStimuli</t>
+  </si>
+  <si>
+    <t>numExtraStimuli</t>
+  </si>
+  <si>
+    <t>periodExtraStimuli</t>
   </si>
 </sst>
 </file>
@@ -697,10 +715,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1084,10 +1102,10 @@
       <c r="A22" t="s">
         <v>76</v>
       </c>
-      <c r="B22" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="B22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D22" t="s">
@@ -1098,10 +1116,10 @@
       <c r="A23" t="s">
         <v>77</v>
       </c>
-      <c r="B23" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="B23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D23" t="s">
@@ -1112,10 +1130,10 @@
       <c r="A24" t="s">
         <v>78</v>
       </c>
-      <c r="B24" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="B24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D24" t="s">
@@ -1126,10 +1144,10 @@
       <c r="A25" t="s">
         <v>79</v>
       </c>
-      <c r="B25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="B25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -1140,10 +1158,10 @@
       <c r="A26" t="s">
         <v>80</v>
       </c>
-      <c r="B26" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="B26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -1154,10 +1172,10 @@
       <c r="A27" t="s">
         <v>81</v>
       </c>
-      <c r="B27" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="B27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1165,10 +1183,10 @@
       <c r="A28" t="s">
         <v>82</v>
       </c>
-      <c r="B28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="B28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1176,10 +1194,10 @@
       <c r="A29" t="s">
         <v>83</v>
       </c>
-      <c r="B29" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="B29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1246,6 +1264,39 @@
         <v>103</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>118</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>119</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>117</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>9</v>
       </c>
     </row>
